--- a/biology/Botanique/Golden_Emblem/Golden_Emblem.xlsx
+++ b/biology/Botanique/Golden_Emblem/Golden_Emblem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Golden Emblem' est un cultivar d'hybride de thé obtenu en 1916 par le rosiériste Samuel McGredy[1]. Il est issu de 'Madame Mélanie Soupert' × 'Constance' (hybride de thé dit pernetiana, Pernet-Ducher, 1915)[1],[2].
+'Golden Emblem' est un cultivar d'hybride de thé obtenu en 1916 par le rosiériste Samuel McGredy. Il est issu de 'Madame Mélanie Soupert' × 'Constance' (hybride de thé dit pernetiana, Pernet-Ducher, 1915),.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cultivar se présente sous la forme d'un arbuste vigoureux et érigé, au feuillage vert foncé ressemblant à du houx. Ses boutons sont longs et pointus et deviennent de grandes fleurs (26-40 pétales) d'un jaune d'or de plus en plus pâle au fur et à mesure de la floraison qui est remontante. Les fleurs fleurissent le plus souvent en solitaires et sont délicatement parfumées[1].
-Sa zone de rusticité est de 6b à 9b. Il résiste donc aux hivers froids. Ce rosier a besoin d'être sérieusement taillé avant la fin de l'hiver pour permettre la floraison[3]. Il existe une variété grimpante découverte en 1927 par les pépinières Amstrong, 'Golden Emblem Cl.'[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cultivar se présente sous la forme d'un arbuste vigoureux et érigé, au feuillage vert foncé ressemblant à du houx. Ses boutons sont longs et pointus et deviennent de grandes fleurs (26-40 pétales) d'un jaune d'or de plus en plus pâle au fur et à mesure de la floraison qui est remontante. Les fleurs fleurissent le plus souvent en solitaires et sont délicatement parfumées.
+Sa zone de rusticité est de 6b à 9b. Il résiste donc aux hivers froids. Ce rosier a besoin d'être sérieusement taillé avant la fin de l'hiver pour permettre la floraison. Il existe une variété grimpante découverte en 1927 par les pépinières Amstrong, 'Golden Emblem Cl.'.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son croisement avec Rosa rugosa Thunb. a donné naissance à 'Docteur Eckener' (Berger, 1930).
 </t>
